--- a/src/main/resources/基本設計書/ログイン画面.xlsx
+++ b/src/main/resources/基本設計書/ログイン画面.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="フォーマット" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="表紙" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="改修履歴" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="画面設計" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="機能設計" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="メッセージ" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="表紙" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="改修履歴" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="画面設計" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="機能設計" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="メッセージ" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t xml:space="preserve">ドキュメント管理番号</t>
   </si>
@@ -619,37 +618,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
     <tabColor rgb="FF729FCF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+      <selection pane="topLeft" activeCell="Y22" activeCellId="0" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1429,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF729FCF"/>
@@ -1438,10 +1413,10 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI11" activeCellId="0" sqref="AI11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="33" style="18" width="2.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="48" style="18" width="2.46"/>
@@ -1539,8 +1514,9 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
+      <c r="E3" s="20" t="str">
+        <f aca="false">表紙!$L$16</f>
+        <v>認証機能</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -1552,8 +1528,8 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20" t="str">
-        <f aca="true">LEFT(_xlfn.ORG.LIBREOFFICE.REGEX(CELL("filename"),"[^/]+$"),LEN(_xlfn.ORG.LIBREOFFICE.REGEX(CELL("filename"),"[^/]+$"))-FIND("'",_xlfn.ORG.LIBREOFFICE.REGEX(CELL("filename"),"[^/]+$"))+1)</f>
-        <v>ログイン画面</v>
+        <f aca="false">表紙!$L$17</f>
+        <v>ログイン画面</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
@@ -1745,14 +1721,7 @@
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
-      <c r="AG7" s="18" t="n">
-        <f aca="false">VLOOKUP(COUNTIF($A7:$A50,"&lt;&gt;")-COUNTIF($A7:$A50,"&lt;!"),$A$7:$K$50,1)</f>
-        <v>5</v>
-      </c>
-      <c r="AH7" s="18" t="str">
-        <f aca="false">VLOOKUP(COUNTIF($A7:$A50,"&lt;&gt;")-COUNTIF($A7:$A50,"&lt;!"),$A$7:$K$50,11)</f>
-        <v>追加</v>
-      </c>
+      <c r="AH7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="n">
@@ -1807,7 +1776,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="n">
         <f aca="true">IF(G9&lt;&gt;"",NOW(),"")</f>
-        <v>45289.7043281693</v>
+        <v>45289.8476501326</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2016,7 +1985,7 @@
       <c r="B14" s="24"/>
       <c r="C14" s="25" t="n">
         <f aca="true">IF(G14&lt;&gt;"",NOW(),"")</f>
-        <v>45289.7043281694</v>
+        <v>45289.8476501328</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -2140,7 +2109,7 @@
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="n">
         <f aca="true">IF(G17&lt;&gt;"",NOW(),"")</f>
-        <v>45289.7043281694</v>
+        <v>45289.8476501329</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -3811,7 +3780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF729FCF"/>
@@ -4244,6 +4213,467 @@
       <c r="AF54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="Q1:T2"/>
+    <mergeCell ref="U1:X2"/>
+    <mergeCell ref="Y1:AB2"/>
+    <mergeCell ref="AC1:AF2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="Y3:AB4"/>
+    <mergeCell ref="AC3:AF4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF729FCF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AF54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="21" t="str">
+        <f aca="false">改修履歴!U1</f>
+        <v>2023/12/29</v>
+      </c>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20" t="str">
+        <f aca="false">改修履歴!AC1</f>
+        <v>A.K</v>
+      </c>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="AF6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="AF7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="AF13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="AF15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="AF17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="AF18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="AF19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="AF20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="AF21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="AF22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="AF23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="AF24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="AF25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="AF27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="AF28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="AF29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="AF30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="AF31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="AF32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="AF33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="AF34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="AF35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="AF36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="AF37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="AF38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="AF39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="AF40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="AF41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="AF42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="AF43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="AF44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="AF45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="AF46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="AF47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="AF48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="AF49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="AF50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+      <c r="AF51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4"/>
+      <c r="AF52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+      <c r="AF53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:D2"/>
@@ -4281,8 +4711,8 @@
   </sheetPr>
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4732,465 +5162,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF729FCF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AF54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="21" t="str">
-        <f aca="false">改修履歴!U1</f>
-        <v>2023/12/29</v>
-      </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20" t="str">
-        <f aca="false">改修履歴!AC1</f>
-        <v>A.K</v>
-      </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="AF6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="AF7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="AF8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="AF9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="AF10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="AF11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="AF12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="AF13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="AF14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="AF15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="AF16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="AF17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="AF18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="AF19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="AF20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="AF21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="AF22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="AF23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="AF24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="AF25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="AF26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="AF27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="AF28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="AF29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="AF30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="AF31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="AF32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="AF33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="AF34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="AF35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="AF36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="AF37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="AF38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="AF39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="AF40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="AF41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="AF42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="AF43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="AF44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="AF45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="AF46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="AF47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="AF48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="AF49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="AF50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="AF51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="AF52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="AF53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="Q1:T2"/>
-    <mergeCell ref="U1:X2"/>
-    <mergeCell ref="Y1:AB2"/>
-    <mergeCell ref="AC1:AF2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="AC3:AF4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>